--- a/Data/mcnemars_results.xlsx
+++ b/Data/mcnemars_results.xlsx
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>2.098677427397888e-07</v>
+        <v>6.867117736675254e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>2.098677427397888e-07</v>
+        <v>6.867117736675254e-07</v>
       </c>
     </row>
     <row r="5">
